--- a/excel_files/DPR.xlsx
+++ b/excel_files/DPR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4340" yWindow="520" windowWidth="24460" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4340" yWindow="520" windowWidth="24460" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="July.25" sheetId="1" state="visible" r:id="rId1"/>
@@ -2379,10 +2379,8 @@
       <c r="BJ6" s="10" t="n">
         <v>7.31</v>
       </c>
-      <c r="BK6" s="10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BK6" s="10" t="n">
+        <v>8</v>
       </c>
       <c r="BL6" s="10" t="n">
         <v>7.31</v>
@@ -11501,10 +11499,8 @@
       <c r="BJ30" s="10" t="n">
         <v>53.65</v>
       </c>
-      <c r="BK30" s="10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BK30" s="10" t="n">
+        <v>80</v>
       </c>
       <c r="BL30" s="10" t="n">
         <v>53.65</v>
@@ -11862,10 +11858,8 @@
       <c r="BJ31" s="10" t="n">
         <v>53.65</v>
       </c>
-      <c r="BK31" s="10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="BK31" s="10" t="n">
+        <v>30</v>
       </c>
       <c r="BL31" s="10" t="n">
         <v>53.65</v>
@@ -16226,12 +16220,12 @@
     <mergeCell ref="AN2:AN4"/>
     <mergeCell ref="AF2:AF4"/>
     <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AH2:AH4"/>
     <mergeCell ref="CP2:CP4"/>
-    <mergeCell ref="AH2:AH4"/>
     <mergeCell ref="AZ2:AZ4"/>
     <mergeCell ref="CH2:CH4"/>
+    <mergeCell ref="BB2:BB4"/>
     <mergeCell ref="CJ2:CJ4"/>
-    <mergeCell ref="BB2:BB4"/>
     <mergeCell ref="AT2:AT4"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="V2:V4"/>
@@ -16262,8 +16256,8 @@
     <mergeCell ref="CA2:CA4"/>
     <mergeCell ref="AS2:AS4"/>
     <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="CK2:CK4"/>
-    <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="CM2:CM4"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C5:D5"/>
@@ -16374,8 +16368,8 @@
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="BM2:BM4"/>
     <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="BO2:BO4"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="CG2:CG4"/>
     <mergeCell ref="CI2:CI4"/>
@@ -16402,7 +16396,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -31814,12 +31808,12 @@
     <mergeCell ref="AN2:AN4"/>
     <mergeCell ref="AP2:AP4"/>
     <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="CP2:CP4"/>
     <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="CP2:CP4"/>
     <mergeCell ref="AZ2:AZ4"/>
     <mergeCell ref="CH2:CH4"/>
+    <mergeCell ref="CJ2:CJ4"/>
     <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="CJ2:CJ4"/>
     <mergeCell ref="AT2:AT4"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="V2:V4"/>
@@ -31850,8 +31844,8 @@
     <mergeCell ref="CA2:CA4"/>
     <mergeCell ref="AS2:AS4"/>
     <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="CK2:CK4"/>
     <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="CK2:CK4"/>
     <mergeCell ref="CM2:CM4"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C5:D5"/>
@@ -31962,8 +31956,8 @@
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="BM2:BM4"/>
     <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="BO2:BO4"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="BO2:BO4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="CG2:CG4"/>
     <mergeCell ref="CI2:CI4"/>
@@ -32006,15 +32000,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="19.6640625" customWidth="1" min="2" max="2"/>
     <col width="13.83203125" customWidth="1" min="3" max="3"/>
     <col width="16.5" customWidth="1" min="5" max="5"/>
@@ -32098,8 +32092,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="39" t="n">
-        <v>45855.99773905715</v>
+      <c r="A3" s="19" t="n">
+        <v>45855.9977390625</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -32129,6 +32123,278 @@
       </c>
       <c r="H3" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="n">
+        <v>45856.0115455787</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>July.25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10 kg Structural steel has been updated</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n">
+        <v>63</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="n">
+        <v>45856.0115837037</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>July.25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10 kg Structural steel has been updated</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>30</v>
+      </c>
+      <c r="G5" t="n">
+        <v>63</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="n">
+        <v>45856.01284679398</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>July.25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Twenty-five kg of structural steel has been updated.</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" t="n">
+        <v>63</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="39" t="n">
+        <v>45856.01286075231</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>July.25</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>dev</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30 kg of galerization has been done.</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>31</v>
+      </c>
+      <c r="G7" t="n">
+        <v>63</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="39" t="n">
+        <v>45856.0377294213</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>July.25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25 kg of structural steel has been updated.</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" t="n">
+        <v>63</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="39" t="n">
+        <v>45856.03974307871</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>July.25</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10 kg of galvanized steel has been completed</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>63</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="39" t="n">
+        <v>45856.03975582176</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>July.25</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ashish</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1 cubic meter of excavation of the 1.5 meter has been done</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>63</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="39" t="n">
+        <v>45856.03977713986</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>July.25</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Raj</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Rajkot</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7 cubic meter of excavation of the 1.5 meter is done</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>63</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
